--- a/data/02_data_extraction/data_extraction_UnpublishedThesis.xlsx
+++ b/data/02_data_extraction/data_extraction_UnpublishedThesis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyadimri/Library/CloudStorage/Dropbox/GitHub_Repo/GNM_Analysis/data/02_data_extraction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyadimri/Library/CloudStorage/Dropbox/GitHub_Repo/Green_Nest_Material/data/02_data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EE0C9B-9CB6-BD4D-BCBC-01BBCE24914F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131BC2DA-DC5E-714F-B59A-87E7A91E1F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33220" yWindow="500" windowWidth="43580" windowHeight="21100" xr2:uid="{2338411D-A035-6640-9B5F-097AD98E903E}"/>
+    <workbookView xWindow="33220" yWindow="500" windowWidth="43600" windowHeight="20120" xr2:uid="{2338411D-A035-6640-9B5F-097AD98E903E}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCDDD25-569C-114E-BA1C-CFE63559CC31}">
   <dimension ref="A1:AX12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1173,7 +1173,7 @@
         <v>114</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -1325,7 +1325,7 @@
         <v>114</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -1477,7 +1477,7 @@
         <v>114</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         <v>114</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>114</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>114</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -2085,7 +2085,7 @@
         <v>114</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -2237,7 +2237,7 @@
         <v>114</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2389,7 +2389,7 @@
         <v>114</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10">
         <v>1</v>

--- a/data/02_data_extraction/data_extraction_UnpublishedThesis.xlsx
+++ b/data/02_data_extraction/data_extraction_UnpublishedThesis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyadimri/Library/CloudStorage/Dropbox/GitHub_Repo/Green_Nest_Material/data/02_data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131BC2DA-DC5E-714F-B59A-87E7A91E1F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A705A79-D27D-8542-9697-44FBA6FFE4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33220" yWindow="500" windowWidth="43600" windowHeight="20120" xr2:uid="{2338411D-A035-6640-9B5F-097AD98E903E}"/>
+    <workbookView xWindow="21840" yWindow="700" windowWidth="43600" windowHeight="20120" xr2:uid="{2338411D-A035-6640-9B5F-097AD98E903E}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="139">
   <si>
     <t>group_ID</t>
   </si>
@@ -414,9 +414,6 @@
     <t>Unknown (Master Thesis student Adele Mennerat)</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Bergen (Norway)</t>
   </si>
   <si>
@@ -475,6 +472,12 @@
   </si>
   <si>
     <t>percent</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -922,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCDDD25-569C-114E-BA1C-CFE63559CC31}">
   <dimension ref="A1:AX12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2:AT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1126,10 +1129,10 @@
         <v>79</v>
       </c>
       <c r="AW1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX1" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="AX1" s="6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1152,22 +1155,22 @@
         <v>109</v>
       </c>
       <c r="G2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" t="s">
         <v>119</v>
-      </c>
-      <c r="L2" t="s">
-        <v>120</v>
       </c>
       <c r="M2" t="s">
         <v>114</v>
@@ -1191,7 +1194,7 @@
         <v>1.08</v>
       </c>
       <c r="T2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U2">
         <v>9</v>
@@ -1206,16 +1209,16 @@
         <v>0.93</v>
       </c>
       <c r="Y2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z2">
         <v>9</v>
       </c>
       <c r="AA2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB2" t="s">
         <v>122</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>123</v>
       </c>
       <c r="AC2" t="s">
         <v>112</v>
@@ -1254,10 +1257,10 @@
         <v>85</v>
       </c>
       <c r="AO2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AQ2" t="s">
         <v>85</v>
@@ -1269,13 +1272,13 @@
         <v>85</v>
       </c>
       <c r="AT2" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AU2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="AV2" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AW2">
         <v>1</v>
@@ -1304,22 +1307,22 @@
         <v>109</v>
       </c>
       <c r="G3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" t="s">
         <v>119</v>
-      </c>
-      <c r="L3" t="s">
-        <v>120</v>
       </c>
       <c r="M3" t="s">
         <v>114</v>
@@ -1343,7 +1346,7 @@
         <v>1.28</v>
       </c>
       <c r="T3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U3">
         <v>9</v>
@@ -1358,16 +1361,16 @@
         <v>1.18</v>
       </c>
       <c r="Y3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z3">
         <v>9</v>
       </c>
       <c r="AA3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AB3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC3" t="s">
         <v>112</v>
@@ -1406,10 +1409,10 @@
         <v>85</v>
       </c>
       <c r="AO3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AQ3" t="s">
         <v>85</v>
@@ -1421,13 +1424,13 @@
         <v>85</v>
       </c>
       <c r="AT3" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AU3" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="AV3" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AW3">
         <v>1</v>
@@ -1456,22 +1459,22 @@
         <v>109</v>
       </c>
       <c r="G4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" t="s">
         <v>119</v>
-      </c>
-      <c r="L4" t="s">
-        <v>120</v>
       </c>
       <c r="M4" t="s">
         <v>114</v>
@@ -1495,7 +1498,7 @@
         <v>1.53</v>
       </c>
       <c r="T4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U4">
         <v>8</v>
@@ -1510,16 +1513,16 @@
         <v>1.06</v>
       </c>
       <c r="Y4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z4">
         <v>9</v>
       </c>
       <c r="AA4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC4" t="s">
         <v>112</v>
@@ -1558,10 +1561,10 @@
         <v>85</v>
       </c>
       <c r="AO4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AQ4" t="s">
         <v>85</v>
@@ -1573,13 +1576,13 @@
         <v>85</v>
       </c>
       <c r="AT4" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AU4" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="AV4" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AW4">
         <v>1</v>
@@ -1608,22 +1611,22 @@
         <v>109</v>
       </c>
       <c r="G5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" t="s">
         <v>119</v>
-      </c>
-      <c r="L5" t="s">
-        <v>120</v>
       </c>
       <c r="M5" t="s">
         <v>114</v>
@@ -1647,7 +1650,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="T5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U5">
         <v>8</v>
@@ -1662,16 +1665,16 @@
         <v>1.33</v>
       </c>
       <c r="Y5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z5">
         <v>7</v>
       </c>
       <c r="AA5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC5" t="s">
         <v>112</v>
@@ -1710,10 +1713,10 @@
         <v>85</v>
       </c>
       <c r="AO5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AQ5" t="s">
         <v>85</v>
@@ -1725,13 +1728,13 @@
         <v>85</v>
       </c>
       <c r="AT5" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AU5" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="AV5" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AW5">
         <v>1</v>
@@ -1760,22 +1763,22 @@
         <v>109</v>
       </c>
       <c r="G6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" t="s">
         <v>119</v>
-      </c>
-      <c r="L6" t="s">
-        <v>120</v>
       </c>
       <c r="M6" t="s">
         <v>114</v>
@@ -1799,7 +1802,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="T6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U6">
         <v>6</v>
@@ -1814,16 +1817,16 @@
         <v>1.04</v>
       </c>
       <c r="Y6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z6">
         <v>6</v>
       </c>
       <c r="AA6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC6" t="s">
         <v>112</v>
@@ -1862,10 +1865,10 @@
         <v>85</v>
       </c>
       <c r="AO6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AQ6" t="s">
         <v>85</v>
@@ -1877,13 +1880,13 @@
         <v>85</v>
       </c>
       <c r="AT6" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AU6" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="AV6" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AW6">
         <v>1</v>
@@ -1912,22 +1915,22 @@
         <v>109</v>
       </c>
       <c r="G7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" t="s">
         <v>119</v>
-      </c>
-      <c r="L7" t="s">
-        <v>120</v>
       </c>
       <c r="M7" t="s">
         <v>114</v>
@@ -1951,7 +1954,7 @@
         <v>0.97</v>
       </c>
       <c r="T7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U7">
         <v>6</v>
@@ -1966,16 +1969,16 @@
         <v>0.92</v>
       </c>
       <c r="Y7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z7">
         <v>6</v>
       </c>
       <c r="AA7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC7" t="s">
         <v>112</v>
@@ -2014,10 +2017,10 @@
         <v>85</v>
       </c>
       <c r="AO7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AQ7" t="s">
         <v>85</v>
@@ -2029,13 +2032,13 @@
         <v>85</v>
       </c>
       <c r="AT7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AU7" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="AV7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AW7">
         <v>1</v>
@@ -2064,22 +2067,22 @@
         <v>109</v>
       </c>
       <c r="G8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" t="s">
         <v>119</v>
-      </c>
-      <c r="L8" t="s">
-        <v>120</v>
       </c>
       <c r="M8" t="s">
         <v>114</v>
@@ -2103,7 +2106,7 @@
         <v>0.34</v>
       </c>
       <c r="T8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U8">
         <v>4</v>
@@ -2118,16 +2121,16 @@
         <v>0.69</v>
       </c>
       <c r="Y8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z8">
         <v>5</v>
       </c>
       <c r="AA8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC8" t="s">
         <v>112</v>
@@ -2166,10 +2169,10 @@
         <v>85</v>
       </c>
       <c r="AO8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AQ8" t="s">
         <v>85</v>
@@ -2181,13 +2184,13 @@
         <v>85</v>
       </c>
       <c r="AT8" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AU8" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="AV8" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AW8">
         <v>1</v>
@@ -2216,22 +2219,22 @@
         <v>109</v>
       </c>
       <c r="G9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="11" t="s">
+      <c r="L9" t="s">
         <v>119</v>
-      </c>
-      <c r="L9" t="s">
-        <v>120</v>
       </c>
       <c r="M9" t="s">
         <v>114</v>
@@ -2249,7 +2252,7 @@
         <v>51.47</v>
       </c>
       <c r="R9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -2264,7 +2267,7 @@
         <v>40</v>
       </c>
       <c r="W9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X9" t="s">
         <v>85</v>
@@ -2276,13 +2279,13 @@
         <v>9</v>
       </c>
       <c r="AA9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD9" t="s">
         <v>85</v>
@@ -2318,10 +2321,10 @@
         <v>85</v>
       </c>
       <c r="AO9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AQ9" t="s">
         <v>85</v>
@@ -2333,13 +2336,13 @@
         <v>85</v>
       </c>
       <c r="AT9" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AU9" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="AV9" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AW9">
         <v>1</v>
@@ -2368,22 +2371,22 @@
         <v>109</v>
       </c>
       <c r="G10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="11" t="s">
+      <c r="L10" t="s">
         <v>119</v>
-      </c>
-      <c r="L10" t="s">
-        <v>120</v>
       </c>
       <c r="M10" t="s">
         <v>114</v>
@@ -2407,7 +2410,7 @@
         <v>43.88</v>
       </c>
       <c r="T10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U10">
         <v>9</v>
@@ -2422,16 +2425,16 @@
         <v>38.39</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z10">
         <v>9</v>
       </c>
       <c r="AA10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB10" t="s">
         <v>132</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>133</v>
       </c>
       <c r="AC10" t="s">
         <v>112</v>
@@ -2470,10 +2473,10 @@
         <v>85</v>
       </c>
       <c r="AO10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AQ10" t="s">
         <v>85</v>
@@ -2485,13 +2488,13 @@
         <v>85</v>
       </c>
       <c r="AT10" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AU10" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="AV10" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AW10">
         <v>1</v>
